--- a/biology/Zoologie/Cerf_de_Thorold/Cerf_de_Thorold.xlsx
+++ b/biology/Zoologie/Cerf_de_Thorold/Cerf_de_Thorold.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cervus albirostris, Przewalskium albirostris, Przewalskium albirostre
 Le Cerf de Thorold ou Cerf au museau blanc (Cervus albirostris, Przewalskium albirostris ou Przewalskium albirostre), Wylie : shawa chukar, est une espèce de mammifères herbivores de la famille des Cervidae.
@@ -512,13 +524,15 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Przewalskium albirostris a été initialement décrite en 1883 par l'officier, explorateur et naturaliste russe Nikolaï Mikhaïlovitch Prjevalski (1839-1888) sous le protonyme de Cervus albirostris[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Przewalskium albirostris a été initialement décrite en 1883 par l'officier, explorateur et naturaliste russe Nikolaï Mikhaïlovitch Prjevalski (1839-1888) sous le protonyme de Cervus albirostris.
 Cette espèce est classée selon les auteurs :
 dans le genre monotypique Przewalskium ;
 dans le genre Cervus.
-En effet, cette espèce est basale par rapport aux autres espèces du genre Cervus, ce qui fait du genre Przewalskium le groupe frère des Cervus. Toutefois, son articulation date d'environ 2,5 Ma ce qui peut être jugé insuffisant pour justifier une différentiation de genre (typiquement 5 Ma ou plus de divergence)[2].
+En effet, cette espèce est basale par rapport aux autres espèces du genre Cervus, ce qui fait du genre Przewalskium le groupe frère des Cervus. Toutefois, son articulation date d'environ 2,5 Ma ce qui peut être jugé insuffisant pour justifier une différentiation de genre (typiquement 5 Ma ou plus de divergence).
 </t>
         </is>
       </c>
@@ -547,9 +561,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Przewalskium albirostris est endémique à l'Est du plateau tibétain, entre 3 500 et 5 100 m d'altitude[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Przewalskium albirostris est endémique à l'Est du plateau tibétain, entre 3 500 et 5 100 m d'altitude.
 </t>
         </is>
       </c>
@@ -578,9 +594,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les femelles se différencient des mâles par une masse plus faible, inférieure à 180 kg contre 180 à 230 kg pour les mâles qui sont les seuls à porter des bois[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les femelles se différencient des mâles par une masse plus faible, inférieure à 180 kg contre 180 à 230 kg pour les mâles qui sont les seuls à porter des bois.
 </t>
         </is>
       </c>
